--- a/docs/shrcore/shr-core-SubstitutionAllowed-model.xlsx
+++ b/docs/shrcore/shr-core-SubstitutionAllowed-model.xlsx
@@ -137,17 +137,17 @@
     <t>Whether substitution is allowed or not.</t>
   </si>
   <si>
-    <t>shr-core-SubstitutionAllowed-model.value</t>
+    <t>shr-core-SubstitutionAllowed-model.value[x]</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Boolean representing whether substitution is allowed or not.</t>
+    <t>boolean {[]} {[]}
+Coding {[]} {[]}</t>
+  </si>
+  <si>
+    <t>Boolean or code representing whether substitution is allowed or not.</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -305,7 +305,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.96484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -315,7 +315,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="55.515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -335,7 +335,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="41.265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
